--- a/Семинар 6.xlsx
+++ b/Семинар 6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Денис\OneDrive\Рабочий стол\IT\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BDCC10-5F51-4F8F-9B37-80AD362C8872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E88AA9-83C6-4576-871A-210EED4DF4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
@@ -18,54 +18,13 @@
     <sheet name="Задание 3 " sheetId="3" r:id="rId3"/>
     <sheet name="Структура сценария 3" sheetId="8" r:id="rId4"/>
     <sheet name="Задача 4" sheetId="10" r:id="rId5"/>
-    <sheet name="Задача 5" sheetId="9" r:id="rId6"/>
+    <sheet name="Задача 5" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="5" hidden="1">'Задача 5'!$H$4,'Задача 5'!$I$4,'Задача 5'!$I$5,'Задача 5'!$H$6,'Задача 5'!$J$6,'Задача 5'!$K$5</definedName>
-    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Задача 5'!$H$7</definedName>
-    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Задача 5'!$I$7</definedName>
-    <definedName name="solver_lhs3" localSheetId="5" hidden="1">'Задача 5'!$J$7</definedName>
-    <definedName name="solver_lhs4" localSheetId="5" hidden="1">'Задача 5'!$K$7</definedName>
-    <definedName name="solver_lhs5" localSheetId="5" hidden="1">'Задача 5'!$L$10</definedName>
-    <definedName name="solver_lhs6" localSheetId="5" hidden="1">'Задача 5'!$L$11</definedName>
-    <definedName name="solver_lhs7" localSheetId="5" hidden="1">'Задача 5'!$L$12</definedName>
-    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="5" hidden="1">7</definedName>
-    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="5" hidden="1">'Задача 5'!$N$2</definedName>
-    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rel5" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_rel6" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_rel7" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="5" hidden="1">120</definedName>
-    <definedName name="solver_rhs2" localSheetId="5" hidden="1">120</definedName>
-    <definedName name="solver_rhs3" localSheetId="5" hidden="1">120</definedName>
-    <definedName name="solver_rhs4" localSheetId="5" hidden="1">120</definedName>
-    <definedName name="solver_rhs5" localSheetId="5" hidden="1">80</definedName>
-    <definedName name="solver_rhs6" localSheetId="5" hidden="1">50</definedName>
-    <definedName name="solver_rhs7" localSheetId="5" hidden="1">50</definedName>
-    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'Задача 5'!$G$18</definedName>
     <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
@@ -283,8 +242,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -783,7 +742,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -794,13 +753,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -808,90 +767,43 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -903,36 +815,18 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -941,60 +835,123 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Вывод" xfId="2" builtinId="21"/>
@@ -1314,7 +1271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I15" sqref="I15:I16"/>
     </sheetView>
   </sheetViews>
@@ -1664,137 +1621,137 @@
       <c r="B3" s="24">
         <v>30000</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="27"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="93"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="32"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="98"/>
     </row>
     <row r="5" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E5" s="17"/>
-      <c r="F5" s="33">
+      <c r="F5" s="25">
         <f>B18</f>
         <v>-10560</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="26">
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="27">
         <f>G5+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="27">
         <f t="shared" ref="I5:O5" si="0">H5+0.1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="27">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5" s="27">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="27">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="M5" s="35">
+      <c r="M5" s="27">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="N5" s="35">
+      <c r="N5" s="27">
         <f t="shared" si="0"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="O5" s="35">
+      <c r="O5" s="27">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="P5" s="36">
+      <c r="P5" s="28">
         <f>O5+0.1</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="29">
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="30">
         <f t="dataTable" ref="G6:P15" dt2D="1" dtr="1" r1="B10" r2="B15"/>
         <v>-10560</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="31">
         <v>-5520</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="31">
         <v>-480</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="31">
         <v>4560</v>
       </c>
-      <c r="K6" s="40">
+      <c r="K6" s="31">
         <v>9600</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="31">
         <v>14640</v>
       </c>
-      <c r="M6" s="40">
+      <c r="M6" s="31">
         <v>19680</v>
       </c>
-      <c r="N6" s="40">
+      <c r="N6" s="31">
         <v>24720</v>
       </c>
-      <c r="O6" s="40">
+      <c r="O6" s="31">
         <v>29760</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="32">
         <v>34799.999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45">
+      <c r="B7" s="103"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="33">
         <f t="shared" ref="F7:F15" si="1">F6+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="34">
         <v>3840</v>
       </c>
       <c r="H7">
@@ -1821,23 +1778,23 @@
       <c r="O7">
         <v>44160</v>
       </c>
-      <c r="P7" s="47">
+      <c r="P7" s="35">
         <v>49199.999999999985</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="37">
         <v>700</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45">
+      <c r="E8" s="100"/>
+      <c r="F8" s="33">
         <f t="shared" si="1"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="34">
         <v>18240</v>
       </c>
       <c r="H8">
@@ -1864,23 +1821,23 @@
       <c r="O8">
         <v>58560</v>
       </c>
-      <c r="P8" s="47">
+      <c r="P8" s="35">
         <v>63600</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="38">
         <v>0.4</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45">
+      <c r="E9" s="100"/>
+      <c r="F9" s="33">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="34">
         <v>32640</v>
       </c>
       <c r="H9">
@@ -1907,23 +1864,23 @@
       <c r="O9">
         <v>72960</v>
       </c>
-      <c r="P9" s="47">
+      <c r="P9" s="35">
         <v>78000</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="40">
         <v>0.1</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45">
+      <c r="E10" s="100"/>
+      <c r="F10" s="33">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="34">
         <v>47040</v>
       </c>
       <c r="H10">
@@ -1950,17 +1907,17 @@
       <c r="O10">
         <v>87360</v>
       </c>
-      <c r="P10" s="47">
+      <c r="P10" s="35">
         <v>92400</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E11" s="44"/>
-      <c r="F11" s="45">
+      <c r="E11" s="100"/>
+      <c r="F11" s="33">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="34">
         <v>61440</v>
       </c>
       <c r="H11">
@@ -1987,21 +1944,21 @@
       <c r="O11">
         <v>101760</v>
       </c>
-      <c r="P11" s="47">
+      <c r="P11" s="35">
         <v>106800</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45">
+      <c r="B12" s="105"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="33">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="34">
         <v>75840</v>
       </c>
       <c r="H12">
@@ -2028,23 +1985,23 @@
       <c r="O12">
         <v>116160</v>
       </c>
-      <c r="P12" s="47">
+      <c r="P12" s="35">
         <v>121200</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="56">
+      <c r="B13" s="42">
         <v>1600</v>
       </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45">
+      <c r="E13" s="100"/>
+      <c r="F13" s="33">
         <f t="shared" si="1"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="34">
         <v>90240</v>
       </c>
       <c r="H13">
@@ -2071,23 +2028,23 @@
       <c r="O13">
         <v>130560</v>
       </c>
-      <c r="P13" s="47">
+      <c r="P13" s="35">
         <v>135600</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="43">
         <v>0.5</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45">
+      <c r="E14" s="100"/>
+      <c r="F14" s="33">
         <f t="shared" si="1"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="34">
         <v>104639.99999999997</v>
       </c>
       <c r="H14">
@@ -2114,50 +2071,50 @@
       <c r="O14">
         <v>144959.99999999997</v>
       </c>
-      <c r="P14" s="47">
+      <c r="P14" s="35">
         <v>149999.99999999997</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="59">
+      <c r="B15" s="45">
         <v>0.1</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="61">
+      <c r="E15" s="101"/>
+      <c r="F15" s="46">
         <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="47">
         <v>119039.99999999997</v>
       </c>
-      <c r="H15" s="63">
+      <c r="H15" s="48">
         <v>124079.99999999997</v>
       </c>
-      <c r="I15" s="63">
+      <c r="I15" s="48">
         <v>129119.99999999997</v>
       </c>
-      <c r="J15" s="63">
+      <c r="J15" s="48">
         <v>134159.99999999997</v>
       </c>
-      <c r="K15" s="63">
+      <c r="K15" s="48">
         <v>139199.99999999997</v>
       </c>
-      <c r="L15" s="63">
+      <c r="L15" s="48">
         <v>144239.99999999997</v>
       </c>
-      <c r="M15" s="63">
+      <c r="M15" s="48">
         <v>149279.99999999997</v>
       </c>
-      <c r="N15" s="63">
+      <c r="N15" s="48">
         <v>154319.99999999997</v>
       </c>
-      <c r="O15" s="63">
+      <c r="O15" s="48">
         <v>159359.99999999997</v>
       </c>
-      <c r="P15" s="64">
+      <c r="P15" s="49">
         <v>164399.99999999997</v>
       </c>
     </row>
@@ -2166,17 +2123,17 @@
       <c r="A18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="65">
+      <c r="B18" s="50">
         <f>B1*B2*(B10*B8*B9+B15*B13*B14)-B3</f>
         <v>-10560</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="66"/>
+      <c r="B28" s="51"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="66"/>
+      <c r="B29" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2230,62 +2187,62 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="103"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="37">
         <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="38">
         <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="40">
         <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="105"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="56">
+      <c r="B13" s="42">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="43">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="59">
+      <c r="B15" s="45">
         <v>0.3</v>
       </c>
     </row>
@@ -2294,7 +2251,7 @@
       <c r="A18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="65">
+      <c r="B18" s="50">
         <f>B1*B2*(B10*B8*B9+B15*B13*B14)-B3</f>
         <v>5640</v>
       </c>
@@ -2303,21 +2260,21 @@
   </sheetData>
   <scenarios current="0" show="0" sqref="B18">
     <scenario name="1 вариант " count="4" user="Денис" comment="Автор: Денис , 06.06.2023">
-      <inputCells r="B8" val="400" numFmtId="165"/>
+      <inputCells r="B8" val="400" numFmtId="164"/>
       <inputCells r="B10" val="0,3" numFmtId="10"/>
-      <inputCells r="B13" val="1000" numFmtId="165"/>
+      <inputCells r="B13" val="1000" numFmtId="164"/>
       <inputCells r="B15" val="0,3" numFmtId="10"/>
     </scenario>
     <scenario name="2 вариант" locked="1" count="4" user="Денис" comment="Автор: Денис , 06.06.2023">
-      <inputCells r="B8" val="700" numFmtId="165"/>
+      <inputCells r="B8" val="700" numFmtId="164"/>
       <inputCells r="B10" val="0,6" numFmtId="10"/>
-      <inputCells r="B13" val="1600" numFmtId="165"/>
+      <inputCells r="B13" val="1600" numFmtId="164"/>
       <inputCells r="B15" val="0,6" numFmtId="10"/>
     </scenario>
     <scenario name="3 вариант" locked="1" count="4" user="Денис" comment="Автор: Денис , 06.06.2023">
-      <inputCells r="B8" val="1000" numFmtId="165"/>
+      <inputCells r="B8" val="1000" numFmtId="164"/>
       <inputCells r="B10" val="0,7" numFmtId="10"/>
-      <inputCells r="B13" val="2000" numFmtId="165"/>
+      <inputCells r="B13" val="2000" numFmtId="164"/>
       <inputCells r="B15" val="0,7" numFmtId="10"/>
     </scenario>
   </scenarios>
@@ -2346,152 +2303,151 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="2:7" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="76" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="G3" s="59" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="20.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="79" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="E4" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="79" t="s">
+      <c r="G4" s="62" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="73"/>
-      <c r="C6" s="73" t="s">
+      <c r="B6" s="56"/>
+      <c r="C6" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="52">
         <v>400</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="60">
         <v>400</v>
       </c>
-      <c r="F6" s="77">
+      <c r="F6" s="60">
         <v>700</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="60">
         <v>1000</v>
       </c>
     </row>
     <row r="7" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="73"/>
-      <c r="C7" s="73" t="s">
+      <c r="B7" s="56"/>
+      <c r="C7" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="51">
         <v>0.3</v>
       </c>
-      <c r="E7" s="78">
+      <c r="E7" s="61">
         <v>0.3</v>
       </c>
-      <c r="F7" s="78">
+      <c r="F7" s="61">
         <v>0.6</v>
       </c>
-      <c r="G7" s="78">
+      <c r="G7" s="61">
         <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="73"/>
-      <c r="C8" s="73" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="52">
         <v>1000</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="60">
         <v>1000</v>
       </c>
-      <c r="F8" s="77">
+      <c r="F8" s="60">
         <v>1600</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="60">
         <v>2000</v>
       </c>
     </row>
     <row r="9" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="73"/>
-      <c r="C9" s="73" t="s">
+      <c r="B9" s="56"/>
+      <c r="C9" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="51">
         <v>0.3</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="61">
         <v>0.3</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="61">
         <v>0.6</v>
       </c>
-      <c r="G9" s="78">
+      <c r="G9" s="61">
         <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="11" spans="2:7" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="81"/>
-      <c r="C11" s="81" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="63">
         <v>5640</v>
       </c>
-      <c r="E11" s="80">
+      <c r="E11" s="63">
         <v>5640</v>
       </c>
-      <c r="F11" s="80">
+      <c r="F11" s="63">
         <v>86640</v>
       </c>
-      <c r="G11" s="80">
+      <c r="G11" s="63">
         <v>146400</v>
       </c>
     </row>
@@ -2520,7 +2476,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E5" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2533,24 +2489,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="88" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="126">
+      <c r="A2" s="90">
         <v>22594.14414369487</v>
       </c>
       <c r="B2">
@@ -2562,7 +2518,7 @@
       <c r="D2">
         <v>40</v>
       </c>
-      <c r="E2" s="125">
+      <c r="E2" s="89">
         <f>A2*(1-C2^D2)/(-B2)</f>
         <v>10000000</v>
       </c>
@@ -2573,116 +2529,115 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A448E711-2D34-41FD-9B20-1972FDDD67B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DCA880-53C8-4A9A-A481-6F8696238CD4}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="84"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="114"/>
     </row>
     <row r="2" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="117"/>
       <c r="M2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="90">
+      <c r="N2" s="67">
         <f>E7*L10+E8*L11+E9*L12</f>
         <v>119095.23809523809</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="91">
+      <c r="A3" s="68">
         <v>1</v>
       </c>
-      <c r="B3" s="92">
+      <c r="B3" s="69">
         <v>2</v>
       </c>
-      <c r="C3" s="92">
+      <c r="C3" s="69">
         <v>2.5</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
       <c r="G3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="85" t="s">
+      <c r="H3" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="85" t="s">
+      <c r="I3" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="85" t="s">
+      <c r="J3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="86" t="s">
+      <c r="K3" s="66" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="91">
+      <c r="A4" s="68">
         <v>2</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="92">
+      <c r="B4" s="70"/>
+      <c r="C4" s="69">
         <v>3</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="95">
+      <c r="D4" s="70"/>
+      <c r="E4" s="72">
         <v>3.5</v>
       </c>
-      <c r="G4" s="91">
+      <c r="G4" s="68">
         <v>1</v>
       </c>
-      <c r="H4" s="92">
+      <c r="H4" s="69">
         <v>101.71428571428571</v>
       </c>
-      <c r="I4" s="92">
+      <c r="I4" s="69">
         <v>72.857142857142861</v>
       </c>
-      <c r="J4" s="93">
+      <c r="J4" s="70">
         <v>0</v>
       </c>
-      <c r="K4" s="94">
+      <c r="K4" s="71">
         <v>0</v>
       </c>
     </row>
@@ -2690,185 +2645,185 @@
       <c r="A5" s="23">
         <v>3</v>
       </c>
-      <c r="B5" s="96">
+      <c r="B5" s="73">
         <v>3</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="96">
+      <c r="C5" s="74"/>
+      <c r="D5" s="73">
         <v>4</v>
       </c>
-      <c r="E5" s="98"/>
-      <c r="G5" s="91">
+      <c r="E5" s="75"/>
+      <c r="G5" s="68">
         <v>2</v>
       </c>
-      <c r="H5" s="93">
+      <c r="H5" s="70">
         <v>0</v>
       </c>
-      <c r="I5" s="92">
+      <c r="I5" s="69">
         <v>47.142857142857139</v>
       </c>
-      <c r="J5" s="93">
+      <c r="J5" s="70">
         <v>0</v>
       </c>
-      <c r="K5" s="95">
+      <c r="K5" s="72">
         <v>119.99999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="D6" s="101" t="s">
+      <c r="B6" s="119"/>
+      <c r="D6" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="102" t="s">
+      <c r="E6" s="77" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="23">
         <v>3</v>
       </c>
-      <c r="H6" s="96">
+      <c r="H6" s="73">
         <v>18.285714285714292</v>
       </c>
-      <c r="I6" s="97">
+      <c r="I6" s="74">
         <v>0</v>
       </c>
-      <c r="J6" s="96">
+      <c r="J6" s="73">
         <v>120</v>
       </c>
-      <c r="K6" s="98">
+      <c r="K6" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="D7" s="105">
+      <c r="B7" s="121"/>
+      <c r="D7" s="78">
         <v>1</v>
       </c>
-      <c r="E7" s="106">
+      <c r="E7" s="79">
         <v>600</v>
       </c>
-      <c r="G7" s="107" t="s">
+      <c r="G7" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="108">
+      <c r="H7" s="81">
         <f>SUM(H4:H6)</f>
         <v>120</v>
       </c>
-      <c r="I7" s="108">
+      <c r="I7" s="81">
         <f t="shared" ref="I7:K7" si="0">SUM(I4:I6)</f>
         <v>120</v>
       </c>
-      <c r="J7" s="108">
+      <c r="J7" s="81">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K7" s="109">
+      <c r="K7" s="82">
         <f t="shared" si="0"/>
         <v>119.99999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="D8" s="105">
+      <c r="B8" s="121"/>
+      <c r="D8" s="78">
         <v>2</v>
       </c>
-      <c r="E8" s="106">
+      <c r="E8" s="79">
         <v>700</v>
       </c>
-      <c r="G8" s="110" t="s">
+      <c r="G8" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="112"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="124"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="D9" s="115">
+      <c r="B9" s="107"/>
+      <c r="D9" s="83">
         <v>3</v>
       </c>
-      <c r="E9" s="116">
+      <c r="E9" s="84">
         <v>1000</v>
       </c>
       <c r="G9" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="85" t="s">
+      <c r="H9" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="85" t="s">
+      <c r="I9" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="85" t="s">
+      <c r="J9" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="86" t="s">
+      <c r="K9" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="117" t="s">
+      <c r="L9" s="85" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="G10" s="91">
+      <c r="B10" s="109"/>
+      <c r="G10" s="68">
         <v>1</v>
       </c>
-      <c r="H10" s="92">
+      <c r="H10" s="69">
         <f>H4/B3</f>
         <v>50.857142857142854</v>
       </c>
-      <c r="I10" s="92">
+      <c r="I10" s="69">
         <f>I4/C3</f>
         <v>29.142857142857146</v>
       </c>
-      <c r="J10" s="93">
+      <c r="J10" s="70">
         <v>0</v>
       </c>
-      <c r="K10" s="94">
+      <c r="K10" s="71">
         <v>0</v>
       </c>
-      <c r="L10" s="120">
+      <c r="L10" s="86">
         <f>SUM(H10:K10)</f>
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="121"/>
-      <c r="B11" s="122"/>
-      <c r="G11" s="91">
+      <c r="A11" s="110"/>
+      <c r="B11" s="111"/>
+      <c r="G11" s="68">
         <v>2</v>
       </c>
-      <c r="H11" s="93">
+      <c r="H11" s="70">
         <v>0</v>
       </c>
-      <c r="I11" s="92">
+      <c r="I11" s="69">
         <f>I5/C4</f>
         <v>15.714285714285714</v>
       </c>
-      <c r="J11" s="93">
+      <c r="J11" s="70">
         <v>0</v>
       </c>
-      <c r="K11" s="92">
+      <c r="K11" s="69">
         <f>K5/E4</f>
         <v>34.285714285714285</v>
       </c>
-      <c r="L11" s="120">
+      <c r="L11" s="86">
         <f t="shared" ref="L11:L12" si="1">SUM(H11:K11)</f>
         <v>50</v>
       </c>
@@ -2877,21 +2832,21 @@
       <c r="G12" s="23">
         <v>3</v>
       </c>
-      <c r="H12" s="96">
+      <c r="H12" s="73">
         <f>H6/B5</f>
         <v>6.0952380952380976</v>
       </c>
-      <c r="I12" s="97">
+      <c r="I12" s="74">
         <v>0</v>
       </c>
-      <c r="J12" s="96">
+      <c r="J12" s="73">
         <f>J6/D5</f>
         <v>30</v>
       </c>
-      <c r="K12" s="98">
+      <c r="K12" s="75">
         <v>0</v>
       </c>
-      <c r="L12" s="123">
+      <c r="L12" s="87">
         <f t="shared" si="1"/>
         <v>36.095238095238095</v>
       </c>
